--- a/Data/Input/Plantilla reporte novedades.xlsx
+++ b/Data/Input/Plantilla reporte novedades.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://terpelcol.sharepoint.com/sites/CentrodeAutomatizacinTerpel-Robots/Shared Documents/Robots/Documentación robots/MER - Vive Terpel/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot.11\Documents\UiPath\Conciliacion EDS\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{C2998E84-E448-4E3F-AD0D-8CD17BE43611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C847B396-5826-4474-B7C8-01843A20B3BA}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2325" windowWidth="19440" windowHeight="15000" xr2:uid="{D0FEEDE2-8386-41ED-AE46-CD1BC15B7E2D}"/>
+    <workbookView xWindow="-19320" yWindow="-2325" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Diferencias Salesforce - Sateli" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No. Recibo sin PCC</t>
   </si>
@@ -66,122 +65,11 @@
   <si>
     <t>Venta: Fecha de Transacción</t>
   </si>
-  <si>
-    <t>4668828EDS3174</t>
-  </si>
-  <si>
-    <t>EDS BOSTON</t>
-  </si>
-  <si>
-    <t>EDS3174</t>
-  </si>
-  <si>
-    <t>127109</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>8782039</t>
-  </si>
-  <si>
-    <t>2022-02-01 06:17:00</t>
-  </si>
-  <si>
-    <t>4039593EDS3208</t>
-  </si>
-  <si>
-    <t>EDS PALMIRANA</t>
-  </si>
-  <si>
-    <t>EDS3208</t>
-  </si>
-  <si>
-    <t>0147073132600</t>
-  </si>
-  <si>
-    <t>94330525</t>
-  </si>
-  <si>
-    <t>2022-02-01 06:22:00</t>
-  </si>
-  <si>
-    <t>0135157748300</t>
-  </si>
-  <si>
-    <t>0123633564800</t>
-  </si>
-  <si>
-    <t>No existe en Salesforce</t>
-  </si>
-  <si>
-    <t>3561501EDS0850</t>
-  </si>
-  <si>
-    <t>No existe en Satelite</t>
-  </si>
-  <si>
-    <t>EDS TERPEL ZONA INDUSTRIAL SA</t>
-  </si>
-  <si>
-    <t>EDS0850</t>
-  </si>
-  <si>
-    <t>V-0173313497</t>
-  </si>
-  <si>
-    <t>Bono Fidelización</t>
-  </si>
-  <si>
-    <t>0098446623400</t>
-  </si>
-  <si>
-    <t>2/02/2022 03:53 PM</t>
-  </si>
-  <si>
-    <t>Existe en SalesForce</t>
-  </si>
-  <si>
-    <t>3514956EDS3221</t>
-  </si>
-  <si>
-    <t>EDS TERPEL PASEO DE LA 15</t>
-  </si>
-  <si>
-    <t>EDS3221</t>
-  </si>
-  <si>
-    <t>V-0173343900</t>
-  </si>
-  <si>
-    <t>306403</t>
-  </si>
-  <si>
-    <t>3/02/2022 04:05 AM</t>
-  </si>
-  <si>
-    <t>1346942EDS2084</t>
-  </si>
-  <si>
-    <t>EDS TERPEL SAN JOSE DE QUITO</t>
-  </si>
-  <si>
-    <t>EDS2084</t>
-  </si>
-  <si>
-    <t>V-0173557566</t>
-  </si>
-  <si>
-    <t>0189957648800</t>
-  </si>
-  <si>
-    <t>5/02/2022 06:53 PM</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
@@ -572,32 +460,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FC71CC-7AE1-4711-9793-37D6FF91E131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,239 +515,6 @@
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>4668828</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5">
-        <v>20000</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>4039593</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="5">
-        <v>20000</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>4039593</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5">
-        <v>20000</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4039593</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="5">
-        <v>20000</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3561501</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="5">
-        <v>30000</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>3514956</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="5">
-        <v>20000</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>1346942</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="5">
-        <v>10000</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -868,18 +523,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,18 +741,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A121BA-4B34-4729-897C-C3075E43F231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB1E8A68-E516-4B49-9529-F0A6A74D3CA4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A121BA-4B34-4729-897C-C3075E43F231}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/Input/Plantilla reporte novedades.xlsx
+++ b/Data/Input/Plantilla reporte novedades.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2325" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-19320" yWindow="-2330" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Diferencias Salesforce - Sateli" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +87,19 @@
       <color rgb="FF56585B"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -147,6 +160,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,28 +479,28 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A2" sqref="A2:J79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="1"/>
+    <col min="8" max="8" width="20.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,6 +531,937 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
